--- a/KSES/src/main/webapp/WEB-INF/sample/holyinfo_upload.xlsx
+++ b/KSES/src/main/webapp/WEB-INF/sample/holyinfo_upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79CE9AF-55A9-49A3-B837-8B3516364638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC017B5C-B0A8-4255-BEAB-8420545B7C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="12645" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="4545" windowWidth="21600" windowHeight="12645" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,11 +83,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -405,26 +411,25 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
